--- a/Arquivos/b.xlsx
+++ b/Arquivos/b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scdc\Desktop\workspace\seg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scdc\Desktop\p\eclipse\workspace\seg\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" tabRatio="715" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320" tabRatio="715" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1º SUBSOLO" sheetId="41" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="429">
   <si>
     <t>Chave</t>
   </si>
@@ -1267,66 +1267,6 @@
   </si>
   <si>
     <t>não entregar as chaves</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>166</t>
   </si>
   <si>
     <t>Sala de Reunião 01 /  antiga 309</t>
@@ -1574,18 +1514,6 @@
       </rPr>
       <t>(atualizada em 21/12/2015)</t>
     </r>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>186</t>
   </si>
   <si>
     <t>Sala de Reunião 02 / antiga 161</t>
@@ -2361,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2678,6 +2606,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3393,8 +3324,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A16:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3406,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -3436,8 +3367,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
-        <v>382</v>
+      <c r="A6" s="117">
+        <v>142</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -3447,8 +3378,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>383</v>
+      <c r="A7" s="117">
+        <v>143</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
@@ -3458,8 +3389,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
-        <v>384</v>
+      <c r="A8" s="117">
+        <v>144</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="41" t="s">
@@ -3467,8 +3398,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
-        <v>385</v>
+      <c r="A9" s="117">
+        <v>145</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -3478,8 +3409,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
-        <v>386</v>
+      <c r="A10" s="117">
+        <v>146</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -3489,8 +3420,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
-        <v>387</v>
+      <c r="A11" s="117">
+        <v>147</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
@@ -3500,8 +3431,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
-        <v>388</v>
+      <c r="A12" s="117">
+        <v>148</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
@@ -3511,15 +3442,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
-        <v>389</v>
+      <c r="A13" s="117">
+        <v>149</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>390</v>
+      <c r="A14" s="117">
+        <v>150</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>4</v>
@@ -3529,15 +3460,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>391</v>
+      <c r="A15" s="117">
+        <v>151</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>392</v>
+      <c r="A16" s="117">
+        <v>152</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>4</v>
@@ -3547,8 +3478,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>393</v>
+      <c r="A17" s="117">
+        <v>153</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>4</v>
@@ -3558,8 +3489,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
-        <v>394</v>
+      <c r="A18" s="117">
+        <v>154</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>4</v>
@@ -3569,8 +3500,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
-        <v>395</v>
+      <c r="A19" s="117">
+        <v>155</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>4</v>
@@ -3580,8 +3511,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
-        <v>396</v>
+      <c r="A20" s="117">
+        <v>156</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>4</v>
@@ -3591,8 +3522,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
-        <v>397</v>
+      <c r="A21" s="117">
+        <v>157</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>4</v>
@@ -3602,8 +3533,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
-        <v>398</v>
+      <c r="A22" s="117">
+        <v>158</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>4</v>
@@ -3613,8 +3544,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
-        <v>399</v>
+      <c r="A23" s="117">
+        <v>159</v>
       </c>
       <c r="B23" s="67" t="s">
         <v>3</v>
@@ -3624,8 +3555,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>400</v>
+      <c r="A24" s="117">
+        <v>160</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>3</v>
@@ -3635,52 +3566,52 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>436</v>
+      <c r="A25" s="117">
+        <v>184</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
-        <v>437</v>
+      <c r="A26" s="117">
+        <v>185</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
-        <v>438</v>
+      <c r="A27" s="117">
+        <v>183</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
-        <v>439</v>
+      <c r="A28" s="117">
+        <v>186</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
-        <v>401</v>
+      <c r="A29" s="117">
+        <v>166</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>5</v>
@@ -3845,7 +3776,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3858,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -4331,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -4819,7 +4750,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -5159,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -5502,7 +5433,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -5988,7 +5919,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -6603,7 +6534,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -6627,7 +6558,7 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="55" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6978,7 +6909,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -7405,7 +7336,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7416,7 +7347,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7427,7 +7358,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7438,7 +7369,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7718,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7729,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7740,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7751,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7959,7 +7890,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -8238,7 +8169,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8249,7 +8180,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8260,7 +8191,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,7 +8202,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8413,7 +8344,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -8637,7 +8568,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8579,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8659,7 +8590,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8670,7 +8601,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8823,7 +8754,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -8849,7 +8780,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8860,7 +8791,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8871,7 +8802,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8882,7 +8813,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9253,7 +9184,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -9510,7 +9441,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9521,7 +9452,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9532,7 +9463,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9543,7 +9474,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9689,7 +9620,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="97" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -9913,7 +9844,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9924,7 +9855,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9935,7 +9866,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9946,7 +9877,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
